--- a/hasil/2023_01_lipa_21.xlsx
+++ b/hasil/2023_01_lipa_21.xlsx
@@ -148,13 +148,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 06 Juli 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -811,7 +811,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="5" spans="1:15" customHeight="1" ht="15.75">
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/hasil/2023_01_lipa_21.xlsx
+++ b/hasil/2023_01_lipa_21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>LAPORAN  VERZET TERHADAP PUTUSAN VERSTEK</t>
   </si>
@@ -133,22 +133,45 @@
     <t>15</t>
   </si>
   <si>
+    <t>147/Pdt.G/2017/PA.TTE</t>
+  </si>
+  <si>
+    <t>Cerai Talak</t>
+  </si>
+  <si>
+    <t>Drs. H Awaluddin, SH,MH
+Drs. H. MURSALIN TOBUKU
+Drs. ZAENAL GORAAHE, M.H</t>
+  </si>
+  <si>
+    <t>MARINI ABDULLAH, S.HI</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>24/05/2017</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>310/Pdt.G/2018/PA.Tte</t>
   </si>
   <si>
-    <t>Cerai Talak</t>
-  </si>
-  <si>
     <t>25/07/2018</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -308,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -389,26 +412,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -417,15 +436,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="14" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="14" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -731,7 +746,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15.75" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -956,52 +971,74 @@
       </c>
     </row>
     <row r="10" spans="1:15" customHeight="1" ht="45.75">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="1:15" customHeight="1" ht="15.75">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="F10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="1:15" customHeight="1" ht="45.75">
+      <c r="A11" s="24">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" customHeight="1" ht="15.75">
       <c r="A12" s="16"/>
@@ -1020,23 +1057,19 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" customHeight="1" ht="20">
+    <row r="13" spans="1:15" customHeight="1" ht="15.75">
       <c r="A13" s="16"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26" t="s">
-        <v>43</v>
-      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
@@ -1044,37 +1077,41 @@
     <row r="14" spans="1:15" customHeight="1" ht="20">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26" t="s">
-        <v>45</v>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" customHeight="1" ht="15.75">
+    <row r="15" spans="1:15" customHeight="1" ht="20">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="C15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
@@ -1082,16 +1119,16 @@
     <row r="16" spans="1:15" customHeight="1" ht="15.75">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
@@ -1099,16 +1136,16 @@
     <row r="17" spans="1:15" customHeight="1" ht="15.75">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
@@ -1116,37 +1153,33 @@
     <row r="18" spans="1:15" customHeight="1" ht="15.75">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" customHeight="1" ht="20">
+    <row r="19" spans="1:15" customHeight="1" ht="15.75">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -1154,37 +1187,41 @@
     <row r="20" spans="1:15" customHeight="1" ht="20">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="C20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
     </row>
-    <row r="21" spans="1:15" customHeight="1" ht="15.75">
+    <row r="21" spans="1:15" customHeight="1" ht="20">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
+      <c r="C21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -1192,16 +1229,16 @@
     <row r="22" spans="1:15" customHeight="1" ht="15.75">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="22"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
@@ -1209,7 +1246,7 @@
     <row r="23" spans="1:15" customHeight="1" ht="15.75">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -1218,7 +1255,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="22"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -1228,14 +1265,14 @@
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="22"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
@@ -1243,16 +1280,16 @@
     <row r="25" spans="1:15" customHeight="1" ht="15.75">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="22"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -1260,16 +1297,16 @@
     <row r="26" spans="1:15" customHeight="1" ht="15.75">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
